--- a/Good Recordings/8.2.Labels.xlsx
+++ b/Good Recordings/8.2.Labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\הנדסה ביו רפואית\שנה ד\סמסטר א\חישה רציפה\פרויקט 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFCA1D0-06CD-41DC-95CC-B8FBB5E8522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C1CBF-5BBE-4CB3-8B51-6C5AC3AF177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1392" windowWidth="12960" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>425.3</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
         <v>1278</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>

--- a/Good Recordings/8.2.Labels.xlsx
+++ b/Good Recordings/8.2.Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C1CBF-5BBE-4CB3-8B51-6C5AC3AF177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CDC9E1-269B-464D-B224-0E71D12D109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,17 +443,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>119</v>
       </c>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>425.3</v>
       </c>
@@ -487,7 +487,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>847.7</v>
       </c>
@@ -500,18 +500,18 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1278</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1709</v>
       </c>
@@ -522,10 +522,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
